--- a/Unity/Assets/Config/Excel/MountConfig.xlsx
+++ b/Unity/Assets/Config/Excel/MountConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>##var</t>
   </si>
@@ -47,6 +47,9 @@
     <t>ActivationItem</t>
   </si>
   <si>
+    <t>SpeedRate</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -62,6 +65,9 @@
     <t>int#ref=ItemConfigCategory</t>
   </si>
   <si>
+    <t>long</t>
+  </si>
+  <si>
     <t>##group</t>
   </si>
   <si>
@@ -81,6 +87,9 @@
   </si>
   <si>
     <t>激活道具</t>
+  </si>
+  <si>
+    <t>移动速度百分比加成</t>
   </si>
   <si>
     <t>mountname_900001</t>
@@ -1136,13 +1145,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="12.75" style="4" customWidth="1"/>
     <col min="2" max="2" width="17.125" style="5" customWidth="1"/>
@@ -1150,10 +1159,11 @@
     <col min="4" max="4" width="21.125" style="5" customWidth="1"/>
     <col min="5" max="5" width="17.75" style="5" customWidth="1"/>
     <col min="6" max="6" width="31.25" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="6"/>
+    <col min="7" max="7" width="19.125" style="6" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:6">
+    <row r="1" s="1" customFormat="1" spans="1:7">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1172,30 +1182,36 @@
       <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:6">
+    <row r="2" s="2" customFormat="1" spans="1:7">
       <c r="A2" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:6">
       <c r="A3" s="13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -1203,35 +1219,38 @@
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:6">
+    <row r="4" s="1" customFormat="1" spans="1:7">
       <c r="A4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:7">
       <c r="B5" s="5">
         <v>900001</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E5" s="5">
         <v>910001</v>
@@ -1239,16 +1258,19 @@
       <c r="F5" s="5">
         <v>920001</v>
       </c>
+      <c r="G5" s="6">
+        <v>10000</v>
+      </c>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="2:7">
       <c r="B6" s="5">
         <v>900002</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6" s="5">
         <v>910002</v>
@@ -1256,16 +1278,19 @@
       <c r="F6" s="5">
         <v>920002</v>
       </c>
+      <c r="G6" s="6">
+        <v>10000</v>
+      </c>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="2:7">
       <c r="B7" s="5">
         <v>900003</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E7" s="5">
         <v>910003</v>
@@ -1273,16 +1298,19 @@
       <c r="F7" s="5">
         <v>920003</v>
       </c>
+      <c r="G7" s="6">
+        <v>10000</v>
+      </c>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="2:7">
       <c r="B8" s="5">
         <v>900004</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E8" s="5">
         <v>910004</v>
@@ -1290,16 +1318,19 @@
       <c r="F8" s="5">
         <v>920004</v>
       </c>
+      <c r="G8" s="6">
+        <v>10000</v>
+      </c>
     </row>
-    <row r="9" spans="2:6">
+    <row r="9" spans="2:7">
       <c r="B9" s="5">
         <v>900005</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E9" s="5">
         <v>910005</v>
@@ -1307,16 +1338,19 @@
       <c r="F9" s="5">
         <v>920005</v>
       </c>
+      <c r="G9" s="6">
+        <v>10000</v>
+      </c>
     </row>
-    <row r="10" spans="2:6">
+    <row r="10" spans="2:7">
       <c r="B10" s="5">
         <v>900006</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E10" s="5">
         <v>910006</v>
@@ -1324,16 +1358,19 @@
       <c r="F10" s="5">
         <v>920006</v>
       </c>
+      <c r="G10" s="6">
+        <v>10000</v>
+      </c>
     </row>
-    <row r="11" spans="2:6">
+    <row r="11" spans="2:7">
       <c r="B11" s="5">
         <v>900007</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E11" s="5">
         <v>910007</v>
@@ -1341,16 +1378,19 @@
       <c r="F11" s="5">
         <v>920007</v>
       </c>
+      <c r="G11" s="6">
+        <v>15000</v>
+      </c>
     </row>
-    <row r="12" spans="2:6">
+    <row r="12" spans="2:7">
       <c r="B12" s="5">
         <v>900008</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E12" s="5">
         <v>910008</v>
@@ -1358,16 +1398,19 @@
       <c r="F12" s="5">
         <v>920008</v>
       </c>
+      <c r="G12" s="6">
+        <v>15000</v>
+      </c>
     </row>
-    <row r="13" spans="2:6">
+    <row r="13" spans="2:7">
       <c r="B13" s="5">
         <v>900009</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E13" s="5">
         <v>910009</v>
@@ -1375,22 +1418,28 @@
       <c r="F13" s="5">
         <v>920009</v>
       </c>
+      <c r="G13" s="6">
+        <v>28000</v>
+      </c>
     </row>
-    <row r="14" spans="2:6">
+    <row r="14" spans="2:7">
       <c r="B14" s="5">
         <v>900010</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E14" s="5">
         <v>910010</v>
       </c>
       <c r="F14" s="5">
         <v>920010</v>
+      </c>
+      <c r="G14" s="6">
+        <v>28000</v>
       </c>
     </row>
   </sheetData>
